--- a/cheminTpstpc.xlsx
+++ b/cheminTpstpc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059D273A-DC3D-44D9-B25C-A2B956841286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0BE5E5-E4A6-482B-B5FA-27DDA4A1E39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{703ECD5B-C393-4742-A69B-1044F944D443}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>STOCK 16H00 HF</t>
   </si>
@@ -64,13 +64,13 @@
     <t>cheminsanteclairstock16h</t>
   </si>
   <si>
+    <t>chemintpssuiviprod16h</t>
+  </si>
+  <si>
+    <t>chemintpssuiviproderreur</t>
+  </si>
+  <si>
     <t>cheminsanteclairstock23h</t>
-  </si>
-  <si>
-    <t>chemintpssuiviprod16h</t>
-  </si>
-  <si>
-    <t>chemintpssuiviproderreur</t>
   </si>
 </sst>
 </file>
@@ -422,20 +422,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE938E1-5BFA-4493-B548-F7EA1AB3517A}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="4" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,8 +445,11 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -456,8 +459,11 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -467,8 +473,11 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -476,10 +485,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -487,10 +499,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -498,10 +513,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -509,7 +527,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/cheminTpstpc.xlsx
+++ b/cheminTpstpc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0BE5E5-E4A6-482B-B5FA-27DDA4A1E39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89638371-DBB9-4467-A3AE-2C8217F5BFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{703ECD5B-C393-4742-A69B-1044F944D443}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>STOCK 16H00 HF</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>cheminsanteclairstock23h</t>
+  </si>
+  <si>
+    <t>Ematfrv</t>
+  </si>
+  <si>
+    <t>tpserreur</t>
   </si>
 </sst>
 </file>
@@ -422,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE938E1-5BFA-4493-B548-F7EA1AB3517A}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,6 +537,20 @@
       </c>
       <c r="D7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/cheminTpstpc.xlsx
+++ b/cheminTpstpc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89638371-DBB9-4467-A3AE-2C8217F5BFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC967DF-DDF1-47FE-9FDF-AFF8E0009339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{703ECD5B-C393-4742-A69B-1044F944D443}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{703ECD5B-C393-4742-A69B-1044F944D443}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -431,13 +431,13 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="53" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
     <col min="3" max="4" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -563,7 +563,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/cheminTpstpc.xlsx
+++ b/cheminTpstpc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC967DF-DDF1-47FE-9FDF-AFF8E0009339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5502F4-7348-4318-AE92-26BDDD417892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{703ECD5B-C393-4742-A69B-1044F944D443}"/>
+    <workbookView xWindow="-28815" yWindow="4260" windowWidth="29040" windowHeight="15600" xr2:uid="{703ECD5B-C393-4742-A69B-1044F944D443}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
